--- a/TestDataRepository.xlsx
+++ b/TestDataRepository.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,9 +16,9 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Disposition">[2]LookUP!$M$3:$M$9</definedName>
-    <definedName name="Int">[2]LookUP!$K$3:$K$6</definedName>
-    <definedName name="Reviewed">[2]LookUP!$L$3:$L$4</definedName>
+    <definedName name="Disposition">[1]LookUP!$M$3:$M$9</definedName>
+    <definedName name="Int">[1]LookUP!$K$3:$K$6</definedName>
+    <definedName name="Reviewed">[1]LookUP!$L$3:$L$4</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="120">
   <si>
     <t>R3</t>
   </si>
@@ -724,6 +724,9 @@
 vi. Alpha (cannot be O, S, or Q) + alpha + numeric + alpha + numeric + numeric
 vii. Alpha (cannot be O, S, or Q) + alpha + numeric + numeric + alpha + numeric</t>
     </r>
+  </si>
+  <si>
+    <t>Test Test Test</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -989,12 +992,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1014,6 +1028,123 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1029,155 +1160,21 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 118 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1209,37 +1206,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Business Rules"/>
-      <sheetName val="Cover"/>
-      <sheetName val="Index"/>
-      <sheetName val="Revision History"/>
-      <sheetName val="Mined BRC_Ref"/>
-      <sheetName val="LookUP"/>
-      <sheetName val="Program ID"/>
-      <sheetName val="Valid Par plans"/>
-      <sheetName val="ITV-SC"/>
-      <sheetName val="ITV-MM"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1321,6 +1287,37 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Business Rules"/>
+      <sheetName val="Cover"/>
+      <sheetName val="Index"/>
+      <sheetName val="Revision History"/>
+      <sheetName val="Mined BRC_Ref"/>
+      <sheetName val="LookUP"/>
+      <sheetName val="Program ID"/>
+      <sheetName val="Valid Par plans"/>
+      <sheetName val="ITV-SC"/>
+      <sheetName val="ITV-MM"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1615,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,65 +1632,65 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="10" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="12" t="s">
+      <c r="U1" s="49"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="10" t="s">
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="15" t="s">
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="17" t="s">
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="20" t="s">
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AU1" s="20"/>
+      <c r="AU1" s="10"/>
     </row>
     <row r="2" spans="1:47" ht="96" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1705,31 +1702,31 @@
       <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -1756,1154 +1753,1157 @@
       <c r="U2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="Z2" s="16" t="s">
         <v>35</v>
       </c>
       <c r="AA2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="27" t="s">
+      <c r="AC2" s="17" t="s">
         <v>38</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AG2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="15" t="s">
         <v>43</v>
       </c>
       <c r="AI2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AJ2" s="25" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AK2" s="25" t="s">
+      <c r="AK2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AL2" s="25" t="s">
+      <c r="AL2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="25" t="s">
+      <c r="AM2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AN2" s="28" t="s">
+      <c r="AN2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="AO2" s="28" t="s">
+      <c r="AO2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AP2" s="28" t="s">
+      <c r="AP2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="28" t="s">
+      <c r="AQ2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="28" t="s">
+      <c r="AR2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AS2" s="28" t="s">
+      <c r="AS2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AT2" s="29" t="s">
+      <c r="AT2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AU2" s="29" t="s">
+      <c r="AU2" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37" t="s">
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="38" t="s">
+      <c r="R3" s="27"/>
+      <c r="S3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="42"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37" t="s">
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37" t="s">
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="37"/>
-      <c r="S4" s="38" t="s">
+      <c r="R4" s="27"/>
+      <c r="S4" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37" t="s">
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="38" t="s">
+      <c r="R5" s="27"/>
+      <c r="S5" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="31"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="31"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37" t="s">
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="R6" s="37"/>
-      <c r="S6" s="38" t="s">
+      <c r="R6" s="27"/>
+      <c r="S6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="42"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="31"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="31"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="32"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37" t="s">
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="38" t="s">
+      <c r="R7" s="27"/>
+      <c r="S7" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="40"/>
-      <c r="AM7" s="40"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="31"/>
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="31"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37" t="s">
+      <c r="M8" s="26"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37" t="s">
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="38" t="s">
+      <c r="R8" s="27"/>
+      <c r="S8" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
-      <c r="AL8" s="40"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="41"/>
-      <c r="AO8" s="41"/>
-      <c r="AP8" s="41"/>
-      <c r="AQ8" s="41"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="41"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37" t="s">
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37" t="s">
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="38" t="s">
+      <c r="R9" s="27"/>
+      <c r="S9" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="41"/>
-      <c r="AO9" s="41"/>
-      <c r="AP9" s="41"/>
-      <c r="AQ9" s="41"/>
-      <c r="AR9" s="41"/>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37" t="s">
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="38" t="s">
+      <c r="R10" s="27"/>
+      <c r="S10" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="40"/>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="40"/>
-      <c r="AM10" s="40"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37" t="s">
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37" t="s">
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="38" t="s">
+      <c r="R11" s="27"/>
+      <c r="S11" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="40"/>
-      <c r="AM11" s="40"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="42"/>
-      <c r="AU11" s="42"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37" t="s">
+      <c r="M12" s="26"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37" t="s">
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="R12" s="37"/>
-      <c r="S12" s="38" t="s">
+      <c r="R12" s="27"/>
+      <c r="S12" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37" t="s">
+      <c r="M13" s="26"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37" t="s">
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="S13" s="38" t="s">
+      <c r="S13" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="41"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="42"/>
-      <c r="AU13" s="43"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="33"/>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37" t="s">
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37" t="s">
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="R14" s="37"/>
-      <c r="S14" s="38" t="s">
+      <c r="R14" s="27"/>
+      <c r="S14" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="42"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="36" t="s">
+      <c r="L15" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37" t="s">
+      <c r="M15" s="26"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37" t="s">
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="R15" s="37"/>
-      <c r="S15" s="38" t="s">
+      <c r="R15" s="27"/>
+      <c r="S15" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="42"/>
-      <c r="AU15" s="42"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37" t="s">
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37" t="s">
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="38" t="s">
+      <c r="R16" s="27"/>
+      <c r="S16" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="42"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37" t="s">
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37" t="s">
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R17" s="37"/>
-      <c r="S17" s="38" t="s">
+      <c r="R17" s="27"/>
+      <c r="S17" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="41"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="42"/>
-      <c r="AU17" s="42"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="32"/>
     </row>
     <row r="18" spans="1:47" ht="228" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="46" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M18" s="46" t="s">
+      <c r="M18" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="47" t="s">
+      <c r="N18" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="47" t="s">
+      <c r="O18" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P18" s="47" t="s">
+      <c r="P18" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="Q18" s="47" t="s">
+      <c r="Q18" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="R18" s="47" t="s">
+      <c r="R18" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="S18" s="47" t="s">
+      <c r="S18" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="T18" s="46" t="s">
+      <c r="T18" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="U18" s="46" t="s">
+      <c r="U18" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46" t="s">
+      <c r="V18" s="36"/>
+      <c r="W18" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="48">
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="38">
         <v>1</v>
       </c>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="49"/>
-      <c r="AP18" s="49"/>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="40"/>
+      <c r="AU18" s="40"/>
     </row>
     <row r="19" spans="1:47" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="O19" s="51" t="s">
+      <c r="A19" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="O19" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="Q19" s="47" t="s">
+      <c r="Q19" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="R19" s="47" t="s">
+      <c r="R19" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="S19" s="47"/>
-      <c r="Z19" s="39"/>
-      <c r="AU19" s="52"/>
+      <c r="S19" s="37"/>
+      <c r="Z19" s="29"/>
+      <c r="AU19" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2916,12 +2916,12 @@
     <mergeCell ref="AI1:AM1"/>
   </mergeCells>
   <conditionalFormatting sqref="B1 B3:B18">
-    <cfRule type="timePeriod" dxfId="3" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="yesterday">
       <formula>FLOOR(B1,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="yesterday">
       <formula>FLOOR(B19,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2946,13 +2946,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="Distribution rules" prompt="This applies only to distribution rules">
           <x14:formula1>
-            <xm:f>[1]LookUP!#REF!</xm:f>
+            <xm:f>[2]LookUP!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>X3:X19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[2]LookUP!#REF!</xm:f>
+            <xm:f>[1]LookUP!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>Y19:Z19 Y1:Y18 Z4:Z18 Z2</xm:sqref>
         </x14:dataValidation>
@@ -3008,7 +3008,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0430148-A4AB-454B-8EFA-5A49541E4E0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF7D33DF-AFA4-4C36-8E27-918382161531}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
